--- a/xlsx/吉爾吉斯_intext.xlsx
+++ b/xlsx/吉爾吉斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>吉尔吉斯斯坦国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_吉爾吉斯</t>
+    <t>体育运动_体育运动_南非_吉爾吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E5%9B%BD%E5%BE%BD</t>
@@ -11156,7 +11156,7 @@
         <v>526</v>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -17884,7 +17884,7 @@
         <v>958</v>
       </c>
       <c r="G505" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H505" t="s">
         <v>4</v>
